--- a/docentes/Rivera Cruz Ezequiel - Estadisticos 20242.xlsx
+++ b/docentes/Rivera Cruz Ezequiel - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
   <si>
     <t>Mat</t>
   </si>
@@ -76,6 +76,9 @@
     <t>ROJAS</t>
   </si>
   <si>
+    <t>LLANOS</t>
+  </si>
+  <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>SOTO</t>
   </si>
   <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
     <t>FLORES</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
   </si>
   <si>
     <t>ANDRES</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
   </si>
   <si>
     <t>AILYN</t>
@@ -621,16 +630,19 @@
         <v>41</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>95.12</v>
+      </c>
+      <c r="H2">
+        <v>9.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -644,16 +656,19 @@
         <v>36</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>36</v>
       </c>
-      <c r="E3">
-        <v>36</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -667,16 +682,19 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>92.86</v>
+      </c>
+      <c r="H4">
+        <v>8.9</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +762,7 @@
         <v>95.12</v>
       </c>
       <c r="H2">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -770,7 +788,7 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -796,7 +814,7 @@
         <v>92.86</v>
       </c>
       <c r="H4">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +824,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -847,10 +865,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -859,21 +877,21 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22330051920366</v>
+        <v>21330051420317</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -887,24 +905,47 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>22330051920107</v>
+        <v>22330051920366</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>22330051920107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
